--- a/Project_python/out/NMF/optimization3.xlsx
+++ b/Project_python/out/NMF/optimization3.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
         <v>1000</v>
@@ -514,10 +514,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>65.2439024390244</v>
+        <v>61.58536585365854</v>
       </c>
       <c r="K2" t="n">
-        <v>58.53658536585365</v>
+        <v>54.87804878048781</v>
       </c>
     </row>
     <row r="3">
@@ -531,7 +531,7 @@
         <v>1000</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68.29268292682927</v>
+        <v>65.2439024390244</v>
       </c>
       <c r="K3" t="n">
-        <v>64.02439024390245</v>
+        <v>58.53658536585365</v>
       </c>
     </row>
     <row r="4">
@@ -566,7 +566,7 @@
         <v>1000</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -584,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-1</v>
+        <v>62.19512195121951</v>
       </c>
       <c r="K4" t="n">
-        <v>-1</v>
+        <v>54.26829268292683</v>
       </c>
     </row>
     <row r="5">
@@ -601,7 +601,7 @@
         <v>1000</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>67.6829268292683</v>
+        <v>63.41463414634146</v>
       </c>
       <c r="K5" t="n">
-        <v>62.80487804878049</v>
+        <v>57.92682926829268</v>
       </c>
     </row>
   </sheetData>
